--- a/Data/pyautogy/Food Palace/Listing/listing.xlsx
+++ b/Data/pyautogy/Food Palace/Listing/listing.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Active" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="66">
   <si>
     <t>Company</t>
   </si>
@@ -120,67 +121,103 @@
     <t>1x1pcs</t>
   </si>
   <si>
-    <t>dep</t>
-  </si>
-  <si>
-    <t>home &amp;</t>
-  </si>
-  <si>
-    <t>home lin</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>makers</t>
-  </si>
-  <si>
-    <t>BATH TOWEL (70X140) - OXY-70</t>
-  </si>
-  <si>
-    <t>BATH TOWEL (100X150) - OXY-100</t>
-  </si>
-  <si>
-    <t>HAND TOWEL (50X80) - OXY-50</t>
-  </si>
-  <si>
-    <t>HAND TOWEL (30X30) - OXY-30</t>
-  </si>
-  <si>
-    <t>bATH TOWEL (70X140) - 77945</t>
-  </si>
-  <si>
-    <t>BATH TOWEL (70X140) - 88210</t>
-  </si>
-  <si>
-    <t>HAND TOWEL (50X80) - 88210</t>
-  </si>
-  <si>
-    <t>BATH TOWEL (70X140) - OXY-88</t>
-  </si>
-  <si>
-    <t>HAND TOWEL (50X80) - 77945</t>
-  </si>
-  <si>
-    <t>bath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATH TOWEL (70X140) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BATH TOWEL (100X150) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAND TOWEL (50X80) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAND TOWEL (30X30) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bATH TOWEL (70X140) </t>
-  </si>
-  <si>
-    <t>sp0406</t>
+    <t>sup</t>
+  </si>
+  <si>
+    <t>groce</t>
+  </si>
+  <si>
+    <t>MLIHA TURKEY SALAMI EXTRA 500G</t>
+  </si>
+  <si>
+    <t>MLIHA TURKEY SALAMI DIKY DIKY 85G</t>
+  </si>
+  <si>
+    <t>MLIHA TURKEY SALAMI OLIVES 300G</t>
+  </si>
+  <si>
+    <t>MLIHA TURKEY SALAMI SPICY 300G</t>
+  </si>
+  <si>
+    <t>MLIHA TURKEY SALAMI CHEESE 300G</t>
+  </si>
+  <si>
+    <t>MLIHA BEEF SALAMI 300G</t>
+  </si>
+  <si>
+    <t>MLIHA TURKEY JAMBON 100G</t>
+  </si>
+  <si>
+    <t>MLIHA</t>
+  </si>
+  <si>
+    <t>frozen pro</t>
+  </si>
+  <si>
+    <t>salami</t>
+  </si>
+  <si>
+    <t>sp0634</t>
+  </si>
+  <si>
+    <t>MLIHA TRKY JAMBON 100G</t>
+  </si>
+  <si>
+    <t>MLIHA TRKY SLM EXTRA 500G</t>
+  </si>
+  <si>
+    <t>MLIHA TRKY SLM DIKY DIKY 85G</t>
+  </si>
+  <si>
+    <t>MLIHA TRKY SLM OLIVES 300G</t>
+  </si>
+  <si>
+    <t>MLIHA TRKY SLM SPICY 300G</t>
+  </si>
+  <si>
+    <t>MLIHA TRKY SLM CHEESE 300G</t>
+  </si>
+  <si>
+    <t>MLIHA BEEF SLM 300G</t>
+  </si>
+  <si>
+    <t>SP0533</t>
+  </si>
+  <si>
+    <t>BAKARA ALKHAER PURE COWS MILK GHEE 400G</t>
+  </si>
+  <si>
+    <t>BAKARA ALKHAER PURE COWS MILK GHEE 800G</t>
+  </si>
+  <si>
+    <t>DEYAR ALKHAER MIXED GHEE 400G</t>
+  </si>
+  <si>
+    <t>DEYAR ALKHAER MIXED GHEE 800G</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>pure gh</t>
+  </si>
+  <si>
+    <t>BAKARA</t>
+  </si>
+  <si>
+    <t>DEYAR</t>
+  </si>
+  <si>
+    <t>BAKARA ALKHR PR CW ML GHE 800G</t>
+  </si>
+  <si>
+    <t>BAKARA ALKHR PR CW ML GHE 400G</t>
+  </si>
+  <si>
+    <t>ctn</t>
+  </si>
+  <si>
+    <t>1x12pcs</t>
   </si>
 </sst>
 </file>
@@ -283,7 +320,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,6 +351,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,7 +361,27 @@
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 36 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -618,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,31 +854,31 @@
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>6901355964709</v>
+        <v>6287037750052</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>48</v>
+      <c r="H4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="J4" s="4">
-        <v>273457</v>
+        <v>273501</v>
       </c>
       <c r="K4" s="4" t="s">
         <v>31</v>
@@ -827,25 +887,25 @@
         <v>31</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N4" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="8">
-        <v>19.5</v>
+        <v>318</v>
       </c>
       <c r="R4" s="8">
-        <v>19.5</v>
+        <v>26.5</v>
       </c>
       <c r="S4" s="8">
-        <v>29</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -853,31 +913,31 @@
         <v>2</v>
       </c>
       <c r="B5" s="6">
-        <v>6903559651003</v>
+        <v>6278037750069</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>49</v>
+      <c r="H5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="J5" s="4">
-        <v>273458</v>
+        <v>273502</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>31</v>
@@ -886,25 +946,25 @@
         <v>31</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N5" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="8">
-        <v>31.5</v>
+        <v>558</v>
       </c>
       <c r="R5" s="8">
-        <v>31.5</v>
+        <v>46.5</v>
       </c>
       <c r="S5" s="8">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -912,31 +972,31 @@
         <v>3</v>
       </c>
       <c r="B6" s="6">
-        <v>6901355966505</v>
+        <v>6287037750014</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>50</v>
+      <c r="H6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="J6" s="4">
-        <v>273459</v>
+        <v>273503</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>31</v>
@@ -945,25 +1005,25 @@
         <v>31</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="N6" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="8">
-        <v>9.5</v>
+        <v>165</v>
       </c>
       <c r="R6" s="8">
-        <v>9.5</v>
+        <v>13.75</v>
       </c>
       <c r="S6" s="8">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -971,31 +1031,451 @@
         <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>6901355967304</v>
+        <v>6287037750021</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="H7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="4">
+        <v>273504</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="4">
+        <v>12</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>300</v>
+      </c>
+      <c r="R7" s="8">
+        <v>25</v>
+      </c>
+      <c r="S7" s="8">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:B7">
+    <cfRule type="duplicateValues" dxfId="1" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9501025238216</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1">
+        <v>273173</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>14</v>
+      </c>
+      <c r="R3" s="3">
+        <v>14</v>
+      </c>
+      <c r="S3" s="3">
+        <v>14.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6191507502457</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="4">
+        <v>273494</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="R4" s="8">
+        <v>11.5</v>
+      </c>
+      <c r="S4" s="8">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>6191507500545</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="4">
+        <v>273495</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="R5" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="S5" s="8">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>6191507502426</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="4">
+        <v>273496</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>8.25</v>
+      </c>
+      <c r="R6" s="8">
+        <v>8.25</v>
+      </c>
+      <c r="S6" s="8">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>6191507502440</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="H7" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J7" s="4">
-        <v>273460</v>
+        <v>273497</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>31</v>
@@ -1016,45 +1496,45 @@
         <v>31</v>
       </c>
       <c r="Q7" s="8">
-        <v>2.33</v>
+        <v>8.25</v>
       </c>
       <c r="R7" s="8">
-        <v>2.33</v>
+        <v>8.25</v>
       </c>
       <c r="S7" s="8">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="6">
-        <v>6355960779454</v>
+        <v>6191507502433</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" s="4">
-        <v>273461</v>
+        <v>273498</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>31</v>
@@ -1075,45 +1555,45 @@
         <v>31</v>
       </c>
       <c r="Q8" s="8">
-        <v>26</v>
+        <v>8.25</v>
       </c>
       <c r="R8" s="8">
-        <v>26</v>
+        <v>8.25</v>
       </c>
       <c r="S8" s="8">
-        <v>37</v>
+        <v>8.5</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="6">
-        <v>6355961779453</v>
+        <v>6191507502464</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J9" s="4">
-        <v>273462</v>
+        <v>273499</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>31</v>
@@ -1134,45 +1614,45 @@
         <v>31</v>
       </c>
       <c r="Q9" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R9" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S9" s="8">
-        <v>17</v>
+        <v>9.25</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="6">
-        <v>6355937882101</v>
+        <v>6191507502167</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J10" s="4">
-        <v>273463</v>
+        <v>273500</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>31</v>
@@ -1193,137 +1673,19 @@
         <v>31</v>
       </c>
       <c r="Q10" s="8">
-        <v>28</v>
+        <v>4.25</v>
       </c>
       <c r="R10" s="8">
-        <v>28</v>
+        <v>4.25</v>
       </c>
       <c r="S10" s="8">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <v>6355959882103</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="4">
-        <v>273464</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="4">
-        <v>1</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="8">
-        <v>13</v>
-      </c>
-      <c r="R11" s="8">
-        <v>13</v>
-      </c>
-      <c r="S11" s="8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6">
-        <v>6901355962880</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" s="4">
-        <v>273465</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>26</v>
-      </c>
-      <c r="R12" s="8">
-        <v>26</v>
-      </c>
-      <c r="S12" s="8">
-        <v>37</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:B12">
-    <cfRule type="duplicateValues" dxfId="1" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  <conditionalFormatting sqref="B4:B10">
+    <cfRule type="duplicateValues" dxfId="3" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="30"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Data/pyautogy/Food Palace/Listing/listing.xlsx
+++ b/Data/pyautogy/Food Palace/Listing/listing.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
@@ -19,8 +19,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Windows User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="142">
   <si>
     <t>Company</t>
   </si>
@@ -124,9 +158,6 @@
     <t>sup</t>
   </si>
   <si>
-    <t>groce</t>
-  </si>
-  <si>
     <t>MLIHA TURKEY SALAMI EXTRA 500G</t>
   </si>
   <si>
@@ -181,43 +212,274 @@
     <t>MLIHA BEEF SLM 300G</t>
   </si>
   <si>
-    <t>SP0533</t>
-  </si>
-  <si>
-    <t>BAKARA ALKHAER PURE COWS MILK GHEE 400G</t>
-  </si>
-  <si>
-    <t>BAKARA ALKHAER PURE COWS MILK GHEE 800G</t>
-  </si>
-  <si>
-    <t>DEYAR ALKHAER MIXED GHEE 400G</t>
-  </si>
-  <si>
-    <t>DEYAR ALKHAER MIXED GHEE 800G</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>pure gh</t>
-  </si>
-  <si>
-    <t>BAKARA</t>
-  </si>
-  <si>
-    <t>DEYAR</t>
-  </si>
-  <si>
-    <t>BAKARA ALKHR PR CW ML GHE 800G</t>
-  </si>
-  <si>
-    <t>BAKARA ALKHR PR CW ML GHE 400G</t>
-  </si>
-  <si>
-    <t>ctn</t>
-  </si>
-  <si>
-    <t>1x12pcs</t>
+    <t>PALETTE ICC 4-0 MEDIUM BROWN SEMI KIT TWINPACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 4-60 LUSTR MED BRW SEMI KIT TWINPACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 4-88 INTENS D RED SEMI KIT TWINPACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 5-0 LIGHT BROWN SEMI KIT TWINPACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 7-1 MED ASH BLONDE TWIN PACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 7-65 SPARKLNG NOUG.SEMI KIT TWIN PACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 8-1 L. BLOND CENDR.SEMI KIT TWIN PACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 10-2 ASH ULTRA BLOND 50 ML TWINPACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 10-4 BEIGBLOND .SEMI KIT TWIN PACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 1-0 BLACK SEMI KIT @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 10-1 ARCTIC SILVR SEMI KIT @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 1-1 BLUE BLACK SEMI KIT SINGLE @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 3-0 DARK BROWN SEMI KIT @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 4-0 MEDIUM BROWN SEMI KIT SINGLE @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 4-60 LUSTR MED BRW SEMI KIT SINGLE @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 4-88 INTENS D RED SEMI KIT SINGLE @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 4-89 INTENS AUBERG SEMI KIT @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 5-0 LIGHT BROWN SEMI KIT SINGLE @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 5-68 MED CHESTNUT SEMI KIT SINGLE @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 6-0 DARK BLONDE SEMI KIT @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 6-88 RUBY RED SEMI KIT @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 7-0 MED BLONDE SEMI KIT @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 7-1 MED ASH BLONDE SEMI KIT SINGLE @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 7-65 SPARKLNG NOUG SEMI KIT SINGLE @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 8-0 LIGHT BLONDE SEMI KIT @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 9-0 EX LIGHT BLOND SEMI KIT @SP</t>
+  </si>
+  <si>
+    <t>PALETTE</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 1-0 BLACK SEMI KIT TWIN PACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 1-1 BLUE BLACK SEMI KIT TWIN PACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 4-89 INTENS AUBERG SEMI KIT TWIN PACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 5-68 MED CHESTNUT SEMI KIT TWIN PACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 6-0 DARK BLONDE SEMI KIT TWIN PACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 6-88 RUBY RED SEMI KIT TWIN PACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 7-0 MED BLONDE SEMI KIT TWIN PACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 8-0 LIGHT BLONDE SEMI KIT TWIN PACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 9-0 EX LIGHT BLOND SEMI KIT TWIN PACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 10-1 ARCTIC SILVR SEMI KIT TWIN PACK @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 8-1 L BLOND CENDR SEMI KIT SINGLE @SP</t>
+  </si>
+  <si>
+    <t>PALETTE BLK SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE BLUE BLK SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE MED BRWN SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE LUSTR MED BRW SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE INTENS D RED SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE INTENS AUBERG SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE LIGHT BRWN SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE MED CHESTNUT SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE DARK BLND SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE RUBY RED SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE MED BLND SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE MED ASH BLND TP</t>
+  </si>
+  <si>
+    <t>PALETTE SPARKLNG NOUG SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE LIGHT BLND SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE BLND CENDR SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE EX LIGHT BLND SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE ARCTIC SILVR SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE ASH ULTRA BLND 50 ML TP</t>
+  </si>
+  <si>
+    <t>PALETTE BEIGBLND SEM KIT TP</t>
+  </si>
+  <si>
+    <t>PALETTE BLK SEM KIT</t>
+  </si>
+  <si>
+    <t>PALETTE ARCTIC SILVR SEM KIT</t>
+  </si>
+  <si>
+    <t>PALETTE BLUE BLK SEM KIT SNG</t>
+  </si>
+  <si>
+    <t>PALETTE DARK BRWN SEM KIT</t>
+  </si>
+  <si>
+    <t>PALETTE MED BRWN SEM KIT SNG</t>
+  </si>
+  <si>
+    <t>PALETTE LUSTR MED BRW SEM KIT SNG</t>
+  </si>
+  <si>
+    <t>PALETTE INTENS D RED SEM KIT SNG</t>
+  </si>
+  <si>
+    <t>PALETTE INTENS AUBERG SEM KIT</t>
+  </si>
+  <si>
+    <t>PALETTE LIGHT BRWN SEM KIT SNG</t>
+  </si>
+  <si>
+    <t>PALETTE MED CHESTNUT SEM KIT SNG</t>
+  </si>
+  <si>
+    <t>PALETTE DARK BLND SEM KIT</t>
+  </si>
+  <si>
+    <t>PALETTE RUBY RED SEM KIT</t>
+  </si>
+  <si>
+    <t>PALETTE MED BLND SEM KIT</t>
+  </si>
+  <si>
+    <t>PALETTE MED ASH BLND SEM KIT SNG</t>
+  </si>
+  <si>
+    <t>PALETTE SPARKLNG NOUG SEM KIT SNG</t>
+  </si>
+  <si>
+    <t>PALETTE LIGHT BLND SEM KIT</t>
+  </si>
+  <si>
+    <t>PALETTE BLND CENDR SEM KIT SNG</t>
+  </si>
+  <si>
+    <t>PALETTE EX LIGHT BLND SEM KIT</t>
+  </si>
+  <si>
+    <t>PALETTE ASH ULTRA BLND SEM KIT</t>
+  </si>
+  <si>
+    <t>FA ROLL ON WHITENING CARE 3x50 ML @SP</t>
+  </si>
+  <si>
+    <t>FA ROLL ON ATTRACTION FORCE 3x50 ML @SP</t>
+  </si>
+  <si>
+    <t>PALETTE ICC 10-2 ASH ULTRA BLOND SEMI KIT @SP</t>
+  </si>
+  <si>
+    <t>FA ROLL ON white CARE 3x50 ML</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hair care</t>
+  </si>
+  <si>
+    <t>hair coloran</t>
+  </si>
+  <si>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>body &amp; sk</t>
+  </si>
+  <si>
+    <t>roll on</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>1x1set</t>
+  </si>
+  <si>
+    <t>sp0520</t>
+  </si>
+  <si>
+    <t>LISTING</t>
   </si>
 </sst>
 </file>
@@ -227,7 +489,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +531,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="30"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -290,7 +573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -313,6 +596,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -320,7 +640,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,6 +674,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,27 +690,7 @@
     <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Normal 36 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -677,59 +986,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.7109375" customWidth="1"/>
-    <col min="9" max="9" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="12.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.140625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="15"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -791,8 +1104,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
+      <c r="A3" s="3">
+        <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>9501025238216</v>
@@ -850,257 +1163,2382 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4" s="6">
-        <v>6287037750052</v>
+        <v>4015000971393</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="4">
+        <v>273532</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R4" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S4" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6">
+        <v>4015000972710</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="4">
+        <v>273533</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R5" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S5" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6">
+        <v>4015000976145</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" s="4">
+        <v>273534</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R6" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S6" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6">
+        <v>4015000977081</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="4">
+        <v>273535</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R7" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S7" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>4015000978392</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" s="4">
+        <v>273536</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N8" s="4">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R8" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S8" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6">
+        <v>4015000979610</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="4">
+        <v>273537</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R9" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S9" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6">
+        <v>4015000981248</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="4">
+        <v>273538</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R10" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S10" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4015000982085</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="J11" s="4">
+        <v>273539</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N11" s="4">
+        <v>1</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R11" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S11" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6">
+        <v>4015000983945</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="4">
+        <v>273540</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R12" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S12" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="6">
+        <v>4015000984720</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="4">
+        <v>273541</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R13" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S13" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6">
+        <v>4015000985376</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="4">
+        <v>273542</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R14" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S14" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6">
+        <v>4015000986120</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="J15" s="4">
+        <v>273543</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15" s="4">
+        <v>1</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R15" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S15" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6">
+        <v>4015000988544</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="4">
+        <v>273544</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R16" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S16" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6">
+        <v>4015000989213</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="4">
+        <v>273545</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R17" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S17" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6">
+        <v>4015000991674</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="4">
+        <v>273546</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R18" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S18" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>16</v>
+      </c>
+      <c r="B19" s="6">
+        <v>4015000992718</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" s="4">
+        <v>273547</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R19" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S19" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>17</v>
+      </c>
+      <c r="B20" s="6">
+        <v>4015000993685</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J20" s="4">
+        <v>273548</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R20" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S20" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>18</v>
+      </c>
+      <c r="B21" s="6">
+        <v>4015000994323</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J21" s="4">
+        <v>273549</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R21" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S21" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>19</v>
+      </c>
+      <c r="B22" s="6">
+        <v>4015000995078</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J22" s="4">
+        <v>273550</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N22" s="4">
+        <v>1</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="R22" s="8">
+        <v>19.75</v>
+      </c>
+      <c r="S22" s="8">
+        <v>20.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6">
+        <v>7189791012546</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="4">
+        <v>273551</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R23" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S23" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>21</v>
+      </c>
+      <c r="B24" s="6">
+        <v>7189791023450</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J24" s="4">
+        <v>273552</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N24" s="4">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R24" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S24" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6">
+        <v>7189791036924</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J25" s="4">
+        <v>273553</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R25" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S25" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>23</v>
+      </c>
+      <c r="B26" s="6">
+        <v>7189791048729</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J26" s="4">
+        <v>273554</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R26" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S26" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>24</v>
+      </c>
+      <c r="B27" s="6">
+        <v>7189791072335</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" s="4">
+        <v>273555</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R27" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S27" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>25</v>
+      </c>
+      <c r="B28" s="6">
+        <v>7189791085137</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J28" s="4">
+        <v>273556</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R28" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S28" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>26</v>
+      </c>
+      <c r="B29" s="6">
+        <v>7189791090766</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J29" s="4">
+        <v>273557</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R29" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S29" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>27</v>
+      </c>
+      <c r="B30" s="6">
+        <v>7189791010832</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J30" s="4">
+        <v>273558</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N30" s="4">
+        <v>1</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R30" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S30" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>28</v>
+      </c>
+      <c r="B31" s="6">
+        <v>7189791011297</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" s="4">
+        <v>273559</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N31" s="4">
+        <v>1</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R31" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S31" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6">
+        <v>7189791129343</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J32" s="4">
+        <v>273560</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q32" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R32" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S32" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>30</v>
+      </c>
+      <c r="B33" s="6">
+        <v>7189791376105</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J33" s="4">
+        <v>273561</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q33" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R33" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S33" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>31</v>
+      </c>
+      <c r="B34" s="6">
+        <v>7189791676212</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J34" s="4">
+        <v>273562</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R34" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S34" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>32</v>
+      </c>
+      <c r="B35" s="6">
+        <v>7189791720854</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="J35" s="4">
+        <v>273563</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N35" s="4">
+        <v>1</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q35" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R35" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S35" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>33</v>
+      </c>
+      <c r="B36" s="6">
+        <v>7189791806374</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J36" s="4">
+        <v>273564</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N36" s="4">
+        <v>1</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q36" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R36" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S36" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
         <v>34</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" s="4">
-        <v>273501</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N4" s="4">
-        <v>12</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q4" s="8">
-        <v>318</v>
-      </c>
-      <c r="R4" s="8">
-        <v>26.5</v>
-      </c>
-      <c r="S4" s="8">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
-        <v>6278037750069</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="J5" s="4">
-        <v>273502</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N5" s="4">
-        <v>12</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q5" s="8">
-        <v>558</v>
-      </c>
-      <c r="R5" s="8">
-        <v>46.5</v>
-      </c>
-      <c r="S5" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6">
-        <v>6287037750014</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="4">
-        <v>273503</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" s="4">
-        <v>12</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="8">
-        <v>165</v>
-      </c>
-      <c r="R6" s="8">
-        <v>13.75</v>
-      </c>
-      <c r="S6" s="8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6">
-        <v>6287037750021</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="4">
-        <v>273504</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="N7" s="4">
-        <v>12</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q7" s="8">
-        <v>300</v>
-      </c>
-      <c r="R7" s="8">
-        <v>25</v>
-      </c>
-      <c r="S7" s="8">
-        <v>27</v>
+      <c r="B37" s="6">
+        <v>7189792175301</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J37" s="4">
+        <v>273565</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N37" s="4">
+        <v>1</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q37" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R37" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S37" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>35</v>
+      </c>
+      <c r="B38" s="6">
+        <v>7189792264197</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="4">
+        <v>273566</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N38" s="4">
+        <v>1</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q38" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R38" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S38" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>36</v>
+      </c>
+      <c r="B39" s="6">
+        <v>7189792350760</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39" s="4">
+        <v>273567</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N39" s="4">
+        <v>1</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R39" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S39" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>37</v>
+      </c>
+      <c r="B40" s="6">
+        <v>7189792495379</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J40" s="4">
+        <v>273568</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N40" s="4">
+        <v>1</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R40" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S40" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>38</v>
+      </c>
+      <c r="B41" s="6">
+        <v>7189792570632</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J41" s="4">
+        <v>273569</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="R41" s="8">
+        <v>9.75</v>
+      </c>
+      <c r="S41" s="8">
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>39</v>
+      </c>
+      <c r="B42" s="6">
+        <v>6281031278154</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J42" s="4">
+        <v>273570</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1</v>
+      </c>
+      <c r="O42" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>16.8</v>
+      </c>
+      <c r="R42" s="8">
+        <v>16.8</v>
+      </c>
+      <c r="S42" s="8">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>40</v>
+      </c>
+      <c r="B43" s="6">
+        <v>6281031278147</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J43" s="4">
+        <v>273571</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N43" s="4">
+        <v>1</v>
+      </c>
+      <c r="O43" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>16.8</v>
+      </c>
+      <c r="R43" s="8">
+        <v>16.8</v>
+      </c>
+      <c r="S43" s="8">
+        <v>17.75</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B4:B7">
-    <cfRule type="duplicateValues" dxfId="1" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
-  </conditionalFormatting>
+  <mergeCells count="1">
+    <mergeCell ref="C1:S1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -1280,22 +3718,22 @@
         <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F4" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="4">
         <v>273494</v>
@@ -1339,22 +3777,22 @@
         <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F5" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="4">
         <v>273495</v>
@@ -1398,22 +3836,22 @@
         <v>19</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F6" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="4">
         <v>273496</v>
@@ -1457,22 +3895,22 @@
         <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" s="4">
         <v>273497</v>
@@ -1516,22 +3954,22 @@
         <v>19</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" s="4">
         <v>273498</v>
@@ -1575,22 +4013,22 @@
         <v>19</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F9" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J9" s="4">
         <v>273499</v>
@@ -1634,22 +4072,22 @@
         <v>19</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J10" s="4">
         <v>273500</v>
@@ -1684,8 +4122,8 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B10">
-    <cfRule type="duplicateValues" dxfId="3" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
